--- a/Assets/Resources/Data/Advs.xlsx
+++ b/Assets/Resources/Data/Advs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Stage2_1</t>
+  </si>
+  <si>
+    <t>Event3_0</t>
   </si>
   <si>
     <t>Event3_1</t>
@@ -157,8 +160,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -170,60 +173,83 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +270,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -253,66 +310,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,21 +517,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,9 +537,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,8 +579,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,17 +600,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,17 +617,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -622,7 +625,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,7 +634,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,127 +643,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,10 +1090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1305,7 +1308,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -1313,7 +1316,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -1321,7 +1324,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -1337,7 +1340,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -1345,7 +1348,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -1353,7 +1356,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -1361,7 +1364,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -1369,7 +1372,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -1377,7 +1380,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -1385,7 +1388,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -1401,7 +1404,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -1409,7 +1412,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
@@ -1417,7 +1420,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
@@ -1425,7 +1428,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -1433,7 +1436,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -1441,10 +1444,18 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>173</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Advs.xlsx
+++ b/Assets/Resources/Data/Advs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>Event6_3</t>
+  </si>
+  <si>
+    <t>RouteSelect1</t>
+  </si>
+  <si>
+    <t>RouteSelect2</t>
   </si>
 </sst>
 </file>
@@ -159,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -170,95 +176,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,37 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -309,6 +195,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -316,6 +292,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -326,49 +332,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,78 +506,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -459,54 +513,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +523,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,56 +546,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,8 +568,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,6 +582,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -625,145 +631,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1458,6 +1464,22 @@
         <v>45</v>
       </c>
     </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>201</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>202</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Resources/Data/Advs.xlsx
+++ b/Assets/Resources/Data/Advs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>RouteSelect2</t>
+  </si>
+  <si>
+    <t>Gameover</t>
   </si>
 </sst>
 </file>
@@ -167,8 +170,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -176,6 +179,72 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,99 +256,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,6 +287,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -311,13 +321,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,6 +341,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,163 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,8 +532,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,6 +549,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,32 +595,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,139 +640,139 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,10 +1099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1480,6 +1483,14 @@
         <v>47</v>
       </c>
     </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>203</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Resources/Data/Advs.xlsx
+++ b/Assets/Resources/Data/Advs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Gameover</t>
+  </si>
+  <si>
+    <t>Turnover</t>
   </si>
 </sst>
 </file>
@@ -168,9 +171,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -182,6 +185,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -190,27 +228,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -226,23 +252,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,13 +282,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -303,24 +314,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,13 +344,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,43 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,115 +512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,15 +529,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,6 +543,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +578,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,17 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -634,145 +637,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1491,6 +1494,14 @@
         <v>48</v>
       </c>
     </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>204</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Resources/Data/Advs.xlsx
+++ b/Assets/Resources/Data/Advs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Advs" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Tutorial13</t>
+  </si>
+  <si>
+    <t>RebornEffect</t>
   </si>
   <si>
     <t>Opening</t>
@@ -171,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -186,6 +189,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -193,19 +211,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -220,25 +263,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,13 +302,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -274,22 +316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -305,29 +331,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -338,25 +341,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,19 +461,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,133 +491,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +532,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,15 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -578,15 +587,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,17 +615,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,145 +640,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,10 +1105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1224,7 +1227,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1232,7 +1235,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1240,7 +1243,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1248,7 +1251,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1256,7 +1259,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1264,7 +1267,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1272,7 +1275,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1280,7 +1283,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1288,7 +1291,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -1296,7 +1299,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -1304,7 +1307,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -1312,7 +1315,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -1320,7 +1323,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -1328,7 +1331,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -1336,7 +1339,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
@@ -1344,7 +1347,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -1352,7 +1355,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -1360,7 +1363,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -1368,7 +1371,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
@@ -1376,7 +1379,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
@@ -1384,7 +1387,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -1392,7 +1395,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -1400,7 +1403,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -1408,7 +1411,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -1416,7 +1419,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -1424,7 +1427,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
@@ -1432,7 +1435,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
@@ -1440,7 +1443,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -1448,7 +1451,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -1456,7 +1459,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -1464,7 +1467,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
@@ -1472,7 +1475,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
@@ -1480,7 +1483,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
@@ -1488,7 +1491,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
@@ -1496,10 +1499,18 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>204</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Advs.xlsx
+++ b/Assets/Resources/Data/Advs.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Advs" sheetId="1" r:id="rId1"/>
+    <sheet name="Define" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Id</t>
   </si>
@@ -22,6 +23,9 @@
     <t>AdvName</t>
   </si>
   <si>
+    <t>EndJump</t>
+  </si>
+  <si>
     <t>Tutorial1</t>
   </si>
   <si>
@@ -167,6 +171,48 @@
   </si>
   <si>
     <t>Turnover</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>ベース</t>
+  </si>
+  <si>
+    <t>起動</t>
+  </si>
+  <si>
+    <t>タイトル</t>
+  </si>
+  <si>
+    <t>名前入力</t>
+  </si>
+  <si>
+    <t>メニュー</t>
+  </si>
+  <si>
+    <t>バトル</t>
+  </si>
+  <si>
+    <t>マップ</t>
+  </si>
+  <si>
+    <t>ステータス</t>
+  </si>
+  <si>
+    <t>戦略</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>リザルト</t>
+  </si>
+  <si>
+    <t>継承選択</t>
+  </si>
+  <si>
+    <t>思念継承</t>
   </si>
 </sst>
 </file>
@@ -174,10 +220,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -189,6 +235,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -196,8 +249,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,7 +271,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,21 +296,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,7 +311,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,41 +324,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,7 +347,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -331,6 +361,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -341,187 +387,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,17 +581,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,17 +601,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +638,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -617,18 +670,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,145 +686,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,412 +1151,892 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="str">
+        <f>INDEX(Define!B:B,MATCH(C2,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <f>INDEX(Define!B:B,MATCH(C3,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="str">
+        <f>INDEX(Define!B:B,MATCH(C4,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="str">
+        <f>INDEX(Define!B:B,MATCH(C5,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="str">
+        <f>INDEX(Define!B:B,MATCH(C6,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="str">
+        <f>INDEX(Define!B:B,MATCH(C7,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="str">
+        <f>INDEX(Define!B:B,MATCH(C8,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="str">
+        <f>INDEX(Define!B:B,MATCH(C9,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="str">
+        <f>INDEX(Define!B:B,MATCH(C10,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="str">
+        <f>INDEX(Define!B:B,MATCH(C11,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="str">
+        <f>INDEX(Define!B:B,MATCH(C12,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="str">
+        <f>INDEX(Define!B:B,MATCH(C13,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="str">
+        <f>INDEX(Define!B:B,MATCH(C14,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="str">
+        <f>INDEX(Define!B:B,MATCH(C15,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="str">
+        <f>INDEX(Define!B:B,MATCH(C16,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="str">
+        <f>INDEX(Define!B:B,MATCH(C17,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="str">
+        <f>INDEX(Define!B:B,MATCH(C18,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="str">
+        <f>INDEX(Define!B:B,MATCH(C19,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="str">
+        <f>INDEX(Define!B:B,MATCH(C20,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="str">
+        <f>INDEX(Define!B:B,MATCH(C21,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="str">
+        <f>INDEX(Define!B:B,MATCH(C22,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="str">
+        <f>INDEX(Define!B:B,MATCH(C23,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="str">
+        <f>INDEX(Define!B:B,MATCH(C24,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="str">
+        <f>INDEX(Define!B:B,MATCH(C25,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="str">
+        <f>INDEX(Define!B:B,MATCH(C26,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>131</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="str">
+        <f>INDEX(Define!B:B,MATCH(C27,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="str">
+        <f>INDEX(Define!B:B,MATCH(C28,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="str">
+        <f>INDEX(Define!B:B,MATCH(C29,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>142</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="str">
+        <f>INDEX(Define!B:B,MATCH(C30,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="str">
+        <f>INDEX(Define!B:B,MATCH(C31,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="str">
+        <f>INDEX(Define!B:B,MATCH(C32,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="str">
+        <f>INDEX(Define!B:B,MATCH(C33,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="str">
+        <f>INDEX(Define!B:B,MATCH(C34,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>152</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="str">
+        <f>INDEX(Define!B:B,MATCH(C35,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>153</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="str">
+        <f>INDEX(Define!B:B,MATCH(C36,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>154</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="str">
+        <f>INDEX(Define!B:B,MATCH(C37,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>155</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="str">
+        <f>INDEX(Define!B:B,MATCH(C38,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="str">
+        <f>INDEX(Define!B:B,MATCH(C39,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>162</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="str">
+        <f>INDEX(Define!B:B,MATCH(C40,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>163</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="str">
+        <f>INDEX(Define!B:B,MATCH(C41,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>164</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="str">
+        <f>INDEX(Define!B:B,MATCH(C42,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>165</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="str">
+        <f>INDEX(Define!B:B,MATCH(C43,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>171</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44" t="str">
+        <f>INDEX(Define!B:B,MATCH(C44,Define!A:A))</f>
+        <v>戦略</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>172</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45" t="str">
+        <f>INDEX(Define!B:B,MATCH(C45,Define!A:A))</f>
+        <v>リザルト</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>173</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46" t="str">
+        <f>INDEX(Define!B:B,MATCH(C46,Define!A:A))</f>
+        <v>リザルト</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>201</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="str">
+        <f>INDEX(Define!B:B,MATCH(C47,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="str">
+        <f>INDEX(Define!B:B,MATCH(C48,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>203</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49" t="str">
+        <f>INDEX(Define!B:B,MATCH(C49,Define!A:A))</f>
+        <v>リザルト</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>204</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50" t="str">
+        <f>INDEX(Define!B:B,MATCH(C50,Define!A:A))</f>
+        <v>リザルト</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>101</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>111</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>112</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>113</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>114</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>115</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>121</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>122</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>123</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>124</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>125</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>131</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>140</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>141</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>142</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>143</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>144</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>145</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>151</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>152</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>153</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>154</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>155</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>161</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>162</v>
-      </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>163</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>164</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>165</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>171</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>172</v>
-      </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>173</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>201</v>
-      </c>
-      <c r="B47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>202</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>203</v>
-      </c>
-      <c r="B49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>204</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Advs.xlsx
+++ b/Assets/Resources/Data/Advs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Advs" sheetId="1" r:id="rId1"/>
@@ -220,10 +220,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -235,12 +235,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -257,21 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,9 +300,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +316,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -309,52 +332,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -372,7 +349,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,13 +387,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,169 +477,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,15 +578,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -605,17 +596,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,6 +636,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,26 +678,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -686,145 +686,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,7 +1154,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>

--- a/Assets/Resources/Data/Advs.xlsx
+++ b/Assets/Resources/Data/Advs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Id</t>
   </si>
@@ -86,6 +86,9 @@
     <t>Event1_5</t>
   </si>
   <si>
+    <t>Event1_6</t>
+  </si>
+  <si>
     <t>Event2_1</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
     <t>Event2_5</t>
   </si>
   <si>
+    <t>Event2_6</t>
+  </si>
+  <si>
     <t>Stage2_1</t>
   </si>
   <si>
@@ -120,6 +126,9 @@
   </si>
   <si>
     <t>Event3_5</t>
+  </si>
+  <si>
+    <t>Event3_6</t>
   </si>
   <si>
     <t>Event4_1</t>
@@ -220,8 +229,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -231,127 +240,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,12 +259,133 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -387,187 +396,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,65 +587,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -658,8 +608,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,6 +643,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -686,16 +695,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,127 +713,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1472,7 +1481,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1487,7 +1496,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1502,7 +1511,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1517,7 +1526,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1532,7 +1541,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1547,7 +1556,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1562,7 +1571,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1577,7 +1586,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1592,7 +1601,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1607,7 +1616,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1622,7 +1631,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1637,7 +1646,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1652,7 +1661,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1667,7 +1676,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1682,7 +1691,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1697,7 +1706,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1712,7 +1721,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1727,7 +1736,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1742,7 +1751,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1757,7 +1766,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1772,7 +1781,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1787,7 +1796,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1802,82 +1811,82 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D44" t="str">
         <f>INDEX(Define!B:B,MATCH(C44,Define!A:A))</f>
-        <v>戦略</v>
+        <v>なし</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D45" t="str">
         <f>INDEX(Define!B:B,MATCH(C45,Define!A:A))</f>
-        <v>リザルト</v>
+        <v>なし</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D46" t="str">
         <f>INDEX(Define!B:B,MATCH(C46,Define!A:A))</f>
-        <v>リザルト</v>
+        <v>なし</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D47" t="str">
         <f>INDEX(Define!B:B,MATCH(C47,Define!A:A))</f>
-        <v>なし</v>
+        <v>戦略</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D48" t="str">
         <f>INDEX(Define!B:B,MATCH(C48,Define!A:A))</f>
-        <v>なし</v>
+        <v>リザルト</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1892,16 +1901,61 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D50" t="str">
         <f>INDEX(Define!B:B,MATCH(C50,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>202</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="str">
+        <f>INDEX(Define!B:B,MATCH(C51,Define!A:A))</f>
+        <v>なし</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>203</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52" t="str">
+        <f>INDEX(Define!B:B,MATCH(C52,Define!A:A))</f>
+        <v>リザルト</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>204</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53" t="str">
+        <f>INDEX(Define!B:B,MATCH(C53,Define!A:A))</f>
         <v>リザルト</v>
       </c>
     </row>
@@ -1932,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1940,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1948,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1956,7 +2010,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1964,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1972,7 +2026,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1980,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1988,7 +2042,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1996,7 +2050,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2004,7 +2058,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2012,7 +2066,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2020,7 +2074,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2028,7 +2082,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2036,7 +2090,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
